--- a/biology/Zoologie/Dasineura_pyri/Dasineura_pyri.xlsx
+++ b/biology/Zoologie/Dasineura_pyri/Dasineura_pyri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cécidomye des feuilles du poirier
 Dasineura pyri, la cécidomye des feuilles du poirier, est une espèce d'insectes diptères nématocères, de la famille des Cecidomyiidae dont la larve se développe dans les feuilles de poiriers.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte est noir, il mesure de 2 à 3 mm.
 La femelle porte une tarière pouvant se dévaginer et atteindre la longueur du corps.
@@ -524,7 +538,7 @@
 La larve se nourrit du contenu cellulaire des feuilles grâce à l'action toxique de sa salive qu'elle répand sur les tissus. La salive contient des substances apparentées aux auxines (substances de croissance végétales). Une partie des larves se nymphose à l'intérieur de la feuille enroulée, les autres tombent sur le sol où elles s'enterrent et restent en diapause dans un cocon.
 La nymphe se forme en mars.
 Lorsqu'elles sont attaquées, les jeunes feuilles restent enroulées longitudinalement, leur limbe s'épaissit considérablement, devient rigide et cassant. Les 2e et 3e générations sont les plus dommageables car elles correspondent à l'époque où la vigueur des pousses et la formation des jeunes feuilles est la plus intense.
-Cette Cécidomyie est commune dans toute la France. Elle est nuisible dans les Basses-Pyrénées et les Landes[1].
+Cette Cécidomyie est commune dans toute la France. Elle est nuisible dans les Basses-Pyrénées et les Landes.
 </t>
         </is>
       </c>
@@ -553,12 +567,14 @@
           <t>Moyens de lutte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme traitement préventif, il peut être installé un voile anti-insectes, du mois de mai au mois de juillet.
 Au moment de la floraison, prévoir une pulvérisation avec une infusion de tanaisie et une préparation composée de 15 à 30 grammes de savon noir pour un litre d'eau.
 Pour un traitement curatif, les dégâts étant relativement limités, une lutte intensive n'est généralement pas nécessaire. Il est alors possible de couper et détruire les parties atteintes en veillant à ne pas les mettre dans le tas de compost.
-En cas de nécessité, il est préconisé des pulvérisations avec une infusion d'absinthe[2].
+En cas de nécessité, il est préconisé des pulvérisations avec une infusion d'absinthe.
 </t>
         </is>
       </c>
